--- a/output/QUALITY/rebalance/rebalance_20250930.xlsx
+++ b/output/QUALITY/rebalance/rebalance_20250930.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>21.21%</t>
+          <t>21.18%</t>
         </is>
       </c>
     </row>
@@ -6246,13 +6246,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01445434878727915</v>
+        <v>0.01441990142945464</v>
       </c>
       <c r="C2" t="n">
         <v>0.0228183595630305</v>
       </c>
       <c r="D2" t="n">
-        <v>0.008364010775751348</v>
+        <v>0.008398458133575863</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6267,13 +6267,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01954768963809129</v>
+        <v>0.01950263775329933</v>
       </c>
       <c r="C3" t="n">
         <v>0.02257984079775591</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003032151159664622</v>
+        <v>0.003077203044456585</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6288,13 +6288,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0145218363195028</v>
+        <v>0.01448540220927715</v>
       </c>
       <c r="C4" t="n">
         <v>0.02249656892669752</v>
       </c>
       <c r="D4" t="n">
-        <v>0.007974732607194722</v>
+        <v>0.008011166717420371</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6309,13 +6309,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02959459270434408</v>
+        <v>0.02951343477786671</v>
       </c>
       <c r="C5" t="n">
         <v>0.02231494542185274</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.00727964728249134</v>
+        <v>-0.007198489356013964</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6330,13 +6330,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01492075505101869</v>
+        <v>0.01488490188701233</v>
       </c>
       <c r="C6" t="n">
         <v>0.02218622667628363</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00726547162526494</v>
+        <v>0.007301324789271302</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6351,13 +6351,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01973969978377295</v>
+        <v>0.01969286074794902</v>
       </c>
       <c r="C7" t="n">
         <v>0.02216550610110399</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002425806317331039</v>
+        <v>0.002472645353154966</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6372,13 +6372,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01542433830191738</v>
+        <v>0.01538419594572799</v>
       </c>
       <c r="C8" t="n">
         <v>0.0220416192732667</v>
       </c>
       <c r="D8" t="n">
-        <v>0.006617280971349318</v>
+        <v>0.006657423327538717</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6393,13 +6393,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01811123375146784</v>
+        <v>0.01810382392846355</v>
       </c>
       <c r="C9" t="n">
         <v>0.02201482610607582</v>
       </c>
       <c r="D9" t="n">
-        <v>0.003903592354607979</v>
+        <v>0.003911002177612276</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6414,13 +6414,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01859516168185973</v>
+        <v>0.01854877489547974</v>
       </c>
       <c r="C10" t="n">
         <v>0.02167704301913166</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003081881337271924</v>
+        <v>0.003128268123651922</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6435,13 +6435,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02278913351133099</v>
+        <v>0.02273142434526751</v>
       </c>
       <c r="C11" t="n">
         <v>0.02151635113556536</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.001272782375765624</v>
+        <v>-0.001215073209702149</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6477,13 +6477,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01907892625920301</v>
+        <v>0.01902992759626015</v>
       </c>
       <c r="C13" t="n">
         <v>0.02123549790677214</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00215657164756913</v>
+        <v>0.002205570310511988</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6498,13 +6498,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.04300289323158188</v>
+        <v>0.04289274154693293</v>
       </c>
       <c r="C14" t="n">
         <v>0.02114537084325074</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.02185752238833114</v>
+        <v>-0.0217473707036822</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6519,13 +6519,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01956041400624646</v>
+        <v>0.01951167019153933</v>
       </c>
       <c r="C15" t="n">
         <v>0.02111322125687584</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001552807250629375</v>
+        <v>0.001601551065336503</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6540,13 +6540,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0213201009714948</v>
+        <v>0.02126699798880556</v>
       </c>
       <c r="C16" t="n">
         <v>0.02104373173400339</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.000276369237491407</v>
+        <v>-0.0002232662548021652</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6561,13 +6561,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02039925732722806</v>
+        <v>0.02034218539996804</v>
       </c>
       <c r="C17" t="n">
         <v>0.0210397924374765</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0006405351102484434</v>
+        <v>0.0006976070375084645</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6582,13 +6582,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01618633488370426</v>
+        <v>0.01614530792457756</v>
       </c>
       <c r="C18" t="n">
         <v>0.02079255435452488</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00460621947082062</v>
+        <v>0.004647246429947315</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6603,13 +6603,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01760931423316854</v>
+        <v>0.01756513931939719</v>
       </c>
       <c r="C19" t="n">
         <v>0.02072418787368004</v>
       </c>
       <c r="D19" t="n">
-        <v>0.003114873640511495</v>
+        <v>0.00315904855428285</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6624,13 +6624,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01723514433837708</v>
+        <v>0.01719641234024572</v>
       </c>
       <c r="C20" t="n">
         <v>0.02058258286090203</v>
       </c>
       <c r="D20" t="n">
-        <v>0.003347438522524952</v>
+        <v>0.003386170520656311</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6645,13 +6645,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02835673577662341</v>
+        <v>0.02828576077803444</v>
       </c>
       <c r="C21" t="n">
         <v>0.02053856141250151</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0078181743641219</v>
+        <v>-0.00774719936553293</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6666,13 +6666,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02472427939598316</v>
+        <v>0.02466034815401975</v>
       </c>
       <c r="C22" t="n">
         <v>0.02052165765791598</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.00420262173806718</v>
+        <v>-0.004138690496103763</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6687,13 +6687,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01828384712983525</v>
+        <v>0.01823486943707074</v>
       </c>
       <c r="C23" t="n">
         <v>0.02047990651197545</v>
       </c>
       <c r="D23" t="n">
-        <v>0.002196059382140202</v>
+        <v>0.002245037074904713</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6708,13 +6708,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02391867637910565</v>
+        <v>0.02385662486612814</v>
       </c>
       <c r="C24" t="n">
         <v>0.02043335458625211</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.003485321792853539</v>
+        <v>-0.003423270279876024</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6729,13 +6729,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01983983464394166</v>
+        <v>0.01979449877776859</v>
       </c>
       <c r="C25" t="n">
         <v>0.02026308120979844</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0004232465658567837</v>
+        <v>0.0004685824320298515</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6750,13 +6750,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02319229701831818</v>
+        <v>0.02313281613573111</v>
       </c>
       <c r="C26" t="n">
         <v>0.02026090155336779</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.002931395464950397</v>
+        <v>-0.002871914582363324</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6792,13 +6792,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02523254939821106</v>
+        <v>0.02517502011084021</v>
       </c>
       <c r="C28" t="n">
         <v>0.02009041505495201</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.005142134343259053</v>
+        <v>-0.005084605055888203</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6813,13 +6813,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01593879378417013</v>
+        <v>0.01590129525652065</v>
       </c>
       <c r="C29" t="n">
         <v>0.02005809040410823</v>
       </c>
       <c r="D29" t="n">
-        <v>0.004119296619938099</v>
+        <v>0.004156795147587572</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.03145750626342925</v>
+        <v>0.03137813615754376</v>
       </c>
       <c r="C30" t="n">
         <v>0.02000024785807411</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.01145725840535513</v>
+        <v>-0.01137788829946964</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6855,13 +6855,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.017071588730531</v>
+        <v>0.01703124937826175</v>
       </c>
       <c r="C31" t="n">
         <v>0.01977036745180913</v>
       </c>
       <c r="D31" t="n">
-        <v>0.00269877872127813</v>
+        <v>0.002739118073547372</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6876,13 +6876,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.02573906809860185</v>
+        <v>0.02567181245219116</v>
       </c>
       <c r="C32" t="n">
         <v>0.01941168042176338</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.006327387676838464</v>
+        <v>-0.006260132030427776</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6897,13 +6897,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01740892022914418</v>
+        <v>0.0177704498057817</v>
       </c>
       <c r="C33" t="n">
         <v>0.0192211410841856</v>
       </c>
       <c r="D33" t="n">
-        <v>0.001812220855041416</v>
+        <v>0.001450691278403898</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6918,13 +6918,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01833930975867734</v>
+        <v>0.01829532414756227</v>
       </c>
       <c r="C34" t="n">
         <v>0.01918042925378756</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0008411194951102215</v>
+        <v>0.0008851051062252965</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6939,13 +6939,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01295200181785912</v>
+        <v>0.01291996603950461</v>
       </c>
       <c r="C35" t="n">
         <v>0.01915914750357133</v>
       </c>
       <c r="D35" t="n">
-        <v>0.006207145685712215</v>
+        <v>0.006239181464066722</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6960,13 +6960,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02112439820999193</v>
+        <v>0.02107520838250208</v>
       </c>
       <c r="C36" t="n">
         <v>0.01904422079355007</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.002080177416441852</v>
+        <v>-0.002030987588952007</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -6981,13 +6981,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01601575747135461</v>
+        <v>0.01597854246091795</v>
       </c>
       <c r="C37" t="n">
         <v>0.0188937165549452</v>
       </c>
       <c r="D37" t="n">
-        <v>0.002877959083590596</v>
+        <v>0.002915174094027247</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -7002,13 +7002,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02534012758590658</v>
+        <v>0.02527313699316273</v>
       </c>
       <c r="C38" t="n">
         <v>0.01851784137704632</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.006822286208860259</v>
+        <v>-0.006755295616116416</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7023,13 +7023,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01890946358976375</v>
+        <v>0.01886233087886698</v>
       </c>
       <c r="C39" t="n">
         <v>0.01829288768626902</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.0006165759034947281</v>
+        <v>-0.0005694431925979543</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7065,13 +7065,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01802376070094815</v>
+        <v>0.01796517868595096</v>
       </c>
       <c r="C41" t="n">
         <v>0.01826545238537413</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0002416916844259834</v>
+        <v>0.0003002736994231724</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7086,13 +7086,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01756869125249292</v>
+        <v>0.01819317140828606</v>
       </c>
       <c r="C42" t="n">
         <v>0.01823198808559661</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0006632968331036944</v>
+        <v>3.881667731055541e-05</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7149,13 +7149,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.02760220658982006</v>
+        <v>0.02778201385432085</v>
       </c>
       <c r="C45" t="n">
         <v>0.01786823525722426</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.009733971332595796</v>
+        <v>-0.009913778597096592</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -7170,13 +7170,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01748328333644805</v>
+        <v>0.01743468206459861</v>
       </c>
       <c r="C46" t="n">
         <v>0.01779618411907999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0003129007826319363</v>
+        <v>0.0003615020544813774</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -7191,13 +7191,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01841315557855621</v>
+        <v>0.01836756759558525</v>
       </c>
       <c r="C47" t="n">
         <v>0.01776325400811658</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.0006499015704396344</v>
+        <v>-0.0006043135874686696</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -7254,13 +7254,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01718990646741085</v>
+        <v>0.01748598227363109</v>
       </c>
       <c r="C50" t="n">
         <v>0.01761780449656756</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0004278980291567008</v>
+        <v>0.0001318222229364611</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -7275,13 +7275,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01890881812212546</v>
+        <v>0.01886123661365801</v>
       </c>
       <c r="C51" t="n">
         <v>0.01759384142296441</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.001314976699161047</v>
+        <v>-0.001267395190693597</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -7296,13 +7296,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01265502908049047</v>
+        <v>0.01344905059718268</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01265502908049047</v>
+        <v>-0.01344905059718268</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7317,13 +7317,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01521610890425729</v>
+        <v>0.01517642282414104</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01521610890425729</v>
+        <v>-0.01517642282414104</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7338,13 +7338,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01658707559108117</v>
+        <v>0.01654347044023376</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01658707559108117</v>
+        <v>-0.01654347044023376</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7359,13 +7359,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01839544407039644</v>
+        <v>0.01834656426161671</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01839544407039644</v>
+        <v>-0.01834656426161671</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01862573204165372</v>
+        <v>0.01857702401084772</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01862573204165372</v>
+        <v>-0.01857702401084772</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7401,13 +7401,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01642671758482053</v>
+        <v>0.01638514370330881</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01642671758482053</v>
+        <v>-0.01638514370330881</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7422,13 +7422,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.02096774061646161</v>
+        <v>0.02091736122670535</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.02096774061646161</v>
+        <v>-0.02091736122670535</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>

--- a/output/QUALITY/rebalance/rebalance_20250930.xlsx
+++ b/output/QUALITY/rebalance/rebalance_20250930.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>21.18%</t>
+          <t>21.40%</t>
         </is>
       </c>
     </row>
@@ -6246,13 +6246,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01441990142945464</v>
+        <v>0.01425297462113429</v>
       </c>
       <c r="C2" t="n">
         <v>0.0228183595630305</v>
       </c>
       <c r="D2" t="n">
-        <v>0.008398458133575863</v>
+        <v>0.008565384941896206</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6267,13 +6267,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01950263775329933</v>
+        <v>0.01868440281178541</v>
       </c>
       <c r="C3" t="n">
         <v>0.02257984079775591</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003077203044456585</v>
+        <v>0.003895437985970505</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6288,13 +6288,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01448540220927715</v>
+        <v>0.01477555766531089</v>
       </c>
       <c r="C4" t="n">
         <v>0.02249656892669752</v>
       </c>
       <c r="D4" t="n">
-        <v>0.008011166717420371</v>
+        <v>0.007721011261386636</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6309,13 +6309,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02951343477786671</v>
+        <v>0.02978017527816145</v>
       </c>
       <c r="C5" t="n">
         <v>0.02231494542185274</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.007198489356013964</v>
+        <v>-0.007465229856308705</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6330,13 +6330,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01488490188701233</v>
+        <v>0.0146399185892453</v>
       </c>
       <c r="C6" t="n">
         <v>0.02218622667628363</v>
       </c>
       <c r="D6" t="n">
-        <v>0.007301324789271302</v>
+        <v>0.00754630808703833</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6351,13 +6351,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01969286074794902</v>
+        <v>0.02004037647656573</v>
       </c>
       <c r="C7" t="n">
         <v>0.02216550610110399</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002472645353154966</v>
+        <v>0.002125129624538261</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6372,13 +6372,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01538419594572799</v>
+        <v>0.01544405810603187</v>
       </c>
       <c r="C8" t="n">
         <v>0.0220416192732667</v>
       </c>
       <c r="D8" t="n">
-        <v>0.006657423327538717</v>
+        <v>0.006597561167234834</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6393,13 +6393,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01810382392846355</v>
+        <v>0.01804101630030524</v>
       </c>
       <c r="C9" t="n">
         <v>0.02201482610607582</v>
       </c>
       <c r="D9" t="n">
-        <v>0.003911002177612276</v>
+        <v>0.00397380980577058</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6414,13 +6414,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01854877489547974</v>
+        <v>0.0189200509963815</v>
       </c>
       <c r="C10" t="n">
         <v>0.02167704301913166</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003128268123651922</v>
+        <v>0.002756992022750163</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6435,13 +6435,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02273142434526751</v>
+        <v>0.02318729869492625</v>
       </c>
       <c r="C11" t="n">
         <v>0.02151635113556536</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.001215073209702149</v>
+        <v>-0.00167094755936089</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6477,13 +6477,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01902992759626015</v>
+        <v>0.01918531850094336</v>
       </c>
       <c r="C13" t="n">
         <v>0.02123549790677214</v>
       </c>
       <c r="D13" t="n">
-        <v>0.002205570310511988</v>
+        <v>0.002050179405828779</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6498,13 +6498,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.04289274154693293</v>
+        <v>0.04336684605386747</v>
       </c>
       <c r="C14" t="n">
         <v>0.02114537084325074</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0217473707036822</v>
+        <v>-0.02222147521061673</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6519,13 +6519,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01951167019153933</v>
+        <v>0.01990216793164799</v>
       </c>
       <c r="C15" t="n">
         <v>0.02111322125687584</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001601551065336503</v>
+        <v>0.001211053325227852</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6540,13 +6540,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02126699798880556</v>
+        <v>0.02169259964123858</v>
       </c>
       <c r="C16" t="n">
         <v>0.02104373173400339</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.0002232662548021652</v>
+        <v>-0.0006488679072351872</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6561,13 +6561,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02034218539996804</v>
+        <v>0.02014581865450807</v>
       </c>
       <c r="C17" t="n">
         <v>0.0210397924374765</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0006976070375084645</v>
+        <v>0.0008939737829684359</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6582,13 +6582,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01614530792457756</v>
+        <v>0.01646913786950007</v>
       </c>
       <c r="C18" t="n">
         <v>0.02079255435452488</v>
       </c>
       <c r="D18" t="n">
-        <v>0.004647246429947315</v>
+        <v>0.004323416485024805</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6603,13 +6603,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01756513931939719</v>
+        <v>0.01745913915984767</v>
       </c>
       <c r="C19" t="n">
         <v>0.02072418787368004</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00315904855428285</v>
+        <v>0.003265048713832368</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6624,13 +6624,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01719641234024572</v>
+        <v>0.01707823467927551</v>
       </c>
       <c r="C20" t="n">
         <v>0.02058258286090203</v>
       </c>
       <c r="D20" t="n">
-        <v>0.003386170520656311</v>
+        <v>0.00350434818162652</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6645,13 +6645,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02828576077803444</v>
+        <v>0.02857302501753125</v>
       </c>
       <c r="C21" t="n">
         <v>0.02053856141250151</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.00774719936553293</v>
+        <v>-0.008034463605029737</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6666,13 +6666,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02466034815401975</v>
+        <v>0.02487042581512733</v>
       </c>
       <c r="C22" t="n">
         <v>0.02052165765791598</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.004138690496103763</v>
+        <v>-0.004348768157211344</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6687,13 +6687,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01823486943707074</v>
+        <v>0.01860329724607852</v>
       </c>
       <c r="C23" t="n">
         <v>0.02047990651197545</v>
       </c>
       <c r="D23" t="n">
-        <v>0.002245037074904713</v>
+        <v>0.001876609265896931</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6708,13 +6708,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02385662486612814</v>
+        <v>0.02433657661068344</v>
       </c>
       <c r="C24" t="n">
         <v>0.02043335458625211</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.003423270279876024</v>
+        <v>-0.003903222024431323</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6729,13 +6729,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01979449877776859</v>
+        <v>0.01923634849384127</v>
       </c>
       <c r="C25" t="n">
         <v>0.02026308120979844</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0004685824320298515</v>
+        <v>0.001026732715957168</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6750,13 +6750,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02313281613573111</v>
+        <v>0.0235053280769133</v>
       </c>
       <c r="C26" t="n">
         <v>0.02026090155336779</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.002871914582363324</v>
+        <v>-0.003244426523545518</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6792,13 +6792,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02517502011084021</v>
+        <v>0.0254184296411405</v>
       </c>
       <c r="C28" t="n">
         <v>0.02009041505495201</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.005084605055888203</v>
+        <v>-0.005328014586188499</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6813,13 +6813,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01590129525652065</v>
+        <v>0.01542849399166504</v>
       </c>
       <c r="C29" t="n">
         <v>0.02005809040410823</v>
       </c>
       <c r="D29" t="n">
-        <v>0.004156795147587572</v>
+        <v>0.004629596412443183</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.03137813615754376</v>
+        <v>0.03136441768526262</v>
       </c>
       <c r="C30" t="n">
         <v>0.02000024785807411</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.01137788829946964</v>
+        <v>-0.01136416982718851</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6855,13 +6855,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01703124937826175</v>
+        <v>0.01663256124732146</v>
       </c>
       <c r="C31" t="n">
         <v>0.01977036745180913</v>
       </c>
       <c r="D31" t="n">
-        <v>0.002739118073547372</v>
+        <v>0.00313780620448767</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6876,13 +6876,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.02567181245219116</v>
+        <v>0.02615003118482157</v>
       </c>
       <c r="C32" t="n">
         <v>0.01941168042176338</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.006260132030427776</v>
+        <v>-0.00673835076305819</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6897,13 +6897,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.0177704498057817</v>
+        <v>0.01729999889590888</v>
       </c>
       <c r="C33" t="n">
         <v>0.0192211410841856</v>
       </c>
       <c r="D33" t="n">
-        <v>0.001450691278403898</v>
+        <v>0.001921142188276721</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6918,13 +6918,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01829532414756227</v>
+        <v>0.01822154233014862</v>
       </c>
       <c r="C34" t="n">
         <v>0.01918042925378756</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0008851051062252965</v>
+        <v>0.0009588869236389456</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6939,13 +6939,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01291996603950461</v>
+        <v>0.01317829546694278</v>
       </c>
       <c r="C35" t="n">
         <v>0.01915914750357133</v>
       </c>
       <c r="D35" t="n">
-        <v>0.006239181464066722</v>
+        <v>0.005980852036628556</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6960,13 +6960,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02107520838250208</v>
+        <v>0.02008867515874291</v>
       </c>
       <c r="C36" t="n">
         <v>0.01904422079355007</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.002030987588952007</v>
+        <v>-0.001044454365192841</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -6981,13 +6981,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01597854246091795</v>
+        <v>0.01588241233090986</v>
       </c>
       <c r="C37" t="n">
         <v>0.0188937165549452</v>
       </c>
       <c r="D37" t="n">
-        <v>0.002915174094027247</v>
+        <v>0.003011304224035338</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -7002,13 +7002,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02527313699316273</v>
+        <v>0.0257828630039756</v>
       </c>
       <c r="C38" t="n">
         <v>0.01851784137704632</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.006755295616116416</v>
+        <v>-0.007265021626929283</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7023,13 +7023,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01886233087886698</v>
+        <v>0.01884388560608304</v>
       </c>
       <c r="C39" t="n">
         <v>0.01829288768626902</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.0005694431925979543</v>
+        <v>-0.0005509979198140141</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7065,13 +7065,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01796517868595096</v>
+        <v>0.01811611002769371</v>
       </c>
       <c r="C41" t="n">
         <v>0.01826545238537413</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0003002736994231724</v>
+        <v>0.0001493423576804168</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7086,13 +7086,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01819317140828606</v>
+        <v>0.01719336979197246</v>
       </c>
       <c r="C42" t="n">
         <v>0.01823198808559661</v>
       </c>
       <c r="D42" t="n">
-        <v>3.881667731055541e-05</v>
+        <v>0.001038618293624158</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7149,13 +7149,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.02778201385432085</v>
+        <v>0.02782680876466781</v>
       </c>
       <c r="C45" t="n">
         <v>0.01786823525722426</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.009913778597096592</v>
+        <v>-0.009958573507443544</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -7170,13 +7170,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01743468206459861</v>
+        <v>0.01761878519888519</v>
       </c>
       <c r="C46" t="n">
         <v>0.01779618411907999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0003615020544813774</v>
+        <v>0.0001773989201947976</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -7191,13 +7191,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01836756759558525</v>
+        <v>0.01873486493480964</v>
       </c>
       <c r="C47" t="n">
         <v>0.01776325400811658</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.0006043135874686696</v>
+        <v>-0.0009716109266930638</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -7254,13 +7254,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01748598227363109</v>
+        <v>0.01714594443898468</v>
       </c>
       <c r="C50" t="n">
         <v>0.01761780449656756</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0001318222229364611</v>
+        <v>0.0004718600575828735</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -7275,13 +7275,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01886123661365801</v>
+        <v>0.01872209260770375</v>
       </c>
       <c r="C51" t="n">
         <v>0.01759384142296441</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.001267395190693597</v>
+        <v>-0.001128251184739339</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -7296,13 +7296,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01344905059718268</v>
+        <v>0.01203279646887307</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01344905059718268</v>
+        <v>-0.01203279646887307</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7317,13 +7317,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01517642282414104</v>
+        <v>0.01548196038090323</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01517642282414104</v>
+        <v>-0.01548196038090323</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7338,13 +7338,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01654347044023376</v>
+        <v>0.01668815105152652</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01654347044023376</v>
+        <v>-0.01668815105152652</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7359,13 +7359,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01834656426161671</v>
+        <v>0.01854606985240433</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01834656426161671</v>
+        <v>-0.01854606985240433</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01857702401084772</v>
+        <v>0.01798261260357261</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01857702401084772</v>
+        <v>-0.01798261260357261</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7401,13 +7401,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01638514370330881</v>
+        <v>0.01671372046800498</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01638514370330881</v>
+        <v>-0.01671372046800498</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7422,13 +7422,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.02091736122670535</v>
+        <v>0.02071501357622341</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.02091736122670535</v>
+        <v>-0.02071501357622341</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
